--- a/public/position.xlsx
+++ b/public/position.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
   <si>
     <t>Id</t>
   </si>
@@ -29,25 +29,34 @@
     <t>Note</t>
   </si>
   <si>
-    <t>position 2</t>
-  </si>
-  <si>
-    <t>ps2</t>
+    <t>position Director</t>
+  </si>
+  <si>
+    <t>psDirector</t>
+  </si>
+  <si>
+    <t>nothing else</t>
+  </si>
+  <si>
+    <t>position President</t>
+  </si>
+  <si>
+    <t>psPresident</t>
   </si>
   <si>
     <t>nothing</t>
   </si>
   <si>
-    <t>position 3</t>
-  </si>
-  <si>
-    <t>ps3</t>
-  </si>
-  <si>
-    <t>position 4</t>
-  </si>
-  <si>
-    <t>ps4</t>
+    <t>position Employee Level 1</t>
+  </si>
+  <si>
+    <t>psEmLv1</t>
+  </si>
+  <si>
+    <t>position Employee Level 2</t>
+  </si>
+  <si>
+    <t>psEmLv2</t>
   </si>
   <si>
     <t>position 5</t>
@@ -92,9 +101,6 @@
     <t>ps11</t>
   </si>
   <si>
-    <t>nothing else</t>
-  </si>
-  <si>
     <t>position 12</t>
   </si>
   <si>
@@ -119,19 +125,22 @@
     <t>ps15</t>
   </si>
   <si>
+    <t>position Manager2</t>
+  </si>
+  <si>
+    <t>psManager</t>
+  </si>
+  <si>
+    <t>position Leader</t>
+  </si>
+  <si>
+    <t>psLead</t>
+  </si>
+  <si>
     <t>position16</t>
   </si>
   <si>
     <t>ps16</t>
-  </si>
-  <si>
-    <t>psdemo</t>
-  </si>
-  <si>
-    <t>ffs</t>
-  </si>
-  <si>
-    <t>demo</t>
   </si>
 </sst>
 </file>
@@ -467,7 +476,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,7 +500,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -505,7 +514,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -514,144 +523,144 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
         <v>21</v>
       </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
@@ -659,86 +668,98 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
         <v>28</v>
       </c>
-      <c r="B19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" t="s">
-        <v>6</v>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
